--- a/ig/ch-lab-report/StructureDefinition-ch-lab-report-composition.xlsx
+++ b/ig/ch-lab-report/StructureDefinition-ch-lab-report-composition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-20T14:56:25+01:00</t>
+    <t>2023-12-28T12:16:59+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2176,15 +2176,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="72.36328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.06640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.65625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="71.01171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="43.05078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="28.28125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2195,27 +2195,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="65.28515625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="73.84765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="63.28515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="74.53125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="59.37109375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="73.69140625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="57.25390625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="70.4609375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="33.05078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-lab-report/StructureDefinition-ch-lab-report-composition.xlsx
+++ b/ig/ch-lab-report/StructureDefinition-ch-lab-report-composition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5899" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5899" uniqueCount="638">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>CH LAB Composition: Laboratory Report</t>
+    <t>CH LAB-Report Composition: Laboratory Report</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T09:40:37+00:00</t>
+    <t>2024-12-18T08:59:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch)</t>
   </si>
   <si>
-    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(WORK))</t>
+    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -591,15 +591,12 @@
     <t>Composition.extension:basedOn-order-or-requisition.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ServiceRequest)
-</t>
+    <t>Identifier
+Reference(ServiceRequest)</t>
   </si>
   <si>
     <t xml:space="preserve">type:$this}
 </t>
-  </si>
-  <si>
-    <t>closed</t>
   </si>
   <si>
     <t>Composition.extension:basedOn-order-or-requisition.value[x]:valueReference</t>
@@ -912,7 +909,7 @@
     <t>http://hl7.org/fhir/ValueSet/document-classcodes</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:$this}
+    <t xml:space="preserve">value:$this}
 </t>
   </si>
   <si>
@@ -4541,7 +4538,7 @@
         <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>187</v>
+        <v>142</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>174</v>
@@ -4576,13 +4573,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>170</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>80</v>
@@ -4604,7 +4601,7 @@
         <v>80</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L20" t="s" s="2">
         <v>172</v>
@@ -4693,13 +4690,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>137</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>80</v>
@@ -4721,13 +4718,13 @@
         <v>80</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4810,7 +4807,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>152</v>
@@ -4925,7 +4922,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>159</v>
@@ -5040,7 +5037,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>163</v>
@@ -5083,7 +5080,7 @@
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>80</v>
@@ -5157,7 +5154,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>170</v>
@@ -5183,7 +5180,7 @@
         <v>80</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>172</v>
@@ -5272,10 +5269,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="B26" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5387,14 +5384,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5416,13 +5413,13 @@
         <v>138</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5504,10 +5501,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="B28" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5533,13 +5530,13 @@
         <v>153</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5589,16 +5586,16 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI28" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>105</v>
@@ -5621,10 +5618,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="B29" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5650,13 +5647,13 @@
         <v>107</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5682,31 +5679,31 @@
         <v>80</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="Y29" t="s" s="2">
+      <c r="Z29" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="Z29" t="s" s="2">
+      <c r="AA29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF29" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
@@ -5738,10 +5735,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="B30" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5764,16 +5761,16 @@
         <v>94</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5823,7 +5820,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
@@ -5841,7 +5838,7 @@
         <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>80</v>
@@ -5855,10 +5852,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="B31" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5884,13 +5881,13 @@
         <v>153</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5940,7 +5937,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
@@ -5972,14 +5969,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -6001,16 +5998,16 @@
         <v>138</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="O32" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>80</v>
@@ -6059,7 +6056,7 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
@@ -6091,10 +6088,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6117,16 +6114,16 @@
         <v>94</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6176,7 +6173,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
@@ -6191,27 +6188,27 @@
         <v>105</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="AN33" t="s" s="2">
+      <c r="AO33" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>253</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6237,16 +6234,16 @@
         <v>113</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="N34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>80</v>
@@ -6271,14 +6268,14 @@
         <v>80</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="Y34" t="s" s="2">
+      <c r="Z34" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="Z34" t="s" s="2">
-        <v>261</v>
-      </c>
       <c r="AA34" t="s" s="2">
         <v>80</v>
       </c>
@@ -6295,7 +6292,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>93</v>
@@ -6310,27 +6307,27 @@
         <v>105</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>157</v>
       </c>
       <c r="AN34" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AO34" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>265</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6353,19 +6350,19 @@
         <v>94</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="N35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -6393,11 +6390,11 @@
         <v>117</v>
       </c>
       <c r="Y35" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="Z35" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="Z35" t="s" s="2">
-        <v>273</v>
-      </c>
       <c r="AA35" t="s" s="2">
         <v>80</v>
       </c>
@@ -6414,7 +6411,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>93</v>
@@ -6429,27 +6426,27 @@
         <v>105</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AN35" t="s" s="2">
+      <c r="AO35" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>278</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6472,19 +6469,19 @@
         <v>94</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>80</v>
@@ -6509,19 +6506,19 @@
         <v>80</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="Y36" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="Y36" t="s" s="2">
+      <c r="Z36" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="Z36" t="s" s="2">
+      <c r="AA36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB36" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="AC36" s="2"/>
       <c r="AD36" t="s" s="2">
@@ -6531,7 +6528,7 @@
         <v>142</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -6546,30 +6543,30 @@
         <v>105</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>157</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="C37" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="D37" t="s" s="2">
         <v>80</v>
@@ -6591,19 +6588,19 @@
         <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="N37" t="s" s="2">
-        <v>296</v>
-      </c>
       <c r="O37" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
@@ -6628,11 +6625,11 @@
         <v>80</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>80</v>
@@ -6650,7 +6647,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -6668,7 +6665,7 @@
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
@@ -6682,13 +6679,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="C38" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="C38" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>80</v>
@@ -6710,19 +6707,19 @@
         <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M38" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="N38" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="N38" t="s" s="2">
-        <v>296</v>
-      </c>
       <c r="O38" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>80</v>
@@ -6747,11 +6744,11 @@
         <v>80</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Y38" s="2"/>
       <c r="Z38" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>80</v>
@@ -6769,7 +6766,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -6787,7 +6784,7 @@
         <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>80</v>
@@ -6801,10 +6798,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6827,19 +6824,19 @@
         <v>94</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>80</v>
@@ -6888,7 +6885,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -6906,24 +6903,24 @@
         <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AN39" t="s" s="2">
+      <c r="AO39" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>312</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7035,14 +7032,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -7064,13 +7061,13 @@
         <v>138</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7152,10 +7149,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7181,13 +7178,13 @@
         <v>153</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7237,16 +7234,16 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI42" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>105</v>
@@ -7269,10 +7266,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7298,13 +7295,13 @@
         <v>107</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7330,31 +7327,31 @@
         <v>80</v>
       </c>
       <c r="X43" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="Y43" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="Y43" t="s" s="2">
+      <c r="Z43" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="Z43" t="s" s="2">
+      <c r="AA43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF43" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7386,10 +7383,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7412,16 +7409,16 @@
         <v>94</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7471,7 +7468,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
@@ -7489,7 +7486,7 @@
         <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>80</v>
@@ -7503,10 +7500,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7532,13 +7529,13 @@
         <v>153</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7588,7 +7585,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -7620,10 +7617,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7646,17 +7643,17 @@
         <v>94</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7705,7 +7702,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -7720,27 +7717,27 @@
         <v>105</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AM46" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="AN46" t="s" s="2">
+      <c r="AO46" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>328</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7763,19 +7760,19 @@
         <v>94</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="N47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
@@ -7824,7 +7821,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>93</v>
@@ -7839,27 +7836,27 @@
         <v>105</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="AN47" t="s" s="2">
+      <c r="AO47" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>339</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7882,17 +7879,17 @@
         <v>94</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -7941,7 +7938,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>93</v>
@@ -7956,27 +7953,27 @@
         <v>105</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AN48" t="s" s="2">
+      <c r="AO48" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>349</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8088,14 +8085,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -8117,13 +8114,13 @@
         <v>138</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8205,10 +8202,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8234,13 +8231,13 @@
         <v>153</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8290,16 +8287,16 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI51" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>105</v>
@@ -8322,10 +8319,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8351,13 +8348,13 @@
         <v>107</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8383,31 +8380,31 @@
         <v>80</v>
       </c>
       <c r="X52" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="Y52" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="Y52" t="s" s="2">
+      <c r="Z52" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="Z52" t="s" s="2">
+      <c r="AA52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF52" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
@@ -8439,10 +8436,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8465,16 +8462,16 @@
         <v>94</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8524,7 +8521,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8542,7 +8539,7 @@
         <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>80</v>
@@ -8556,10 +8553,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8585,13 +8582,13 @@
         <v>153</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8641,7 +8638,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8673,10 +8670,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8702,13 +8699,13 @@
         <v>153</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8758,7 +8755,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>93</v>
@@ -8776,13 +8773,13 @@
         <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AM55" t="s" s="2">
+      <c r="AN55" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>80</v>
@@ -8790,10 +8787,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8819,13 +8816,13 @@
         <v>113</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8851,14 +8848,14 @@
         <v>80</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Y56" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="Z56" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="Z56" t="s" s="2">
-        <v>368</v>
-      </c>
       <c r="AA56" t="s" s="2">
         <v>80</v>
       </c>
@@ -8875,7 +8872,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -8893,13 +8890,13 @@
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AN56" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>80</v>
@@ -8907,10 +8904,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8933,19 +8930,19 @@
         <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="N57" t="s" s="2">
+      <c r="O57" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -8994,7 +8991,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -9012,13 +9009,13 @@
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="AM57" t="s" s="2">
+      <c r="AN57" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>80</v>
@@ -9026,10 +9023,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9141,14 +9138,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -9170,13 +9167,13 @@
         <v>138</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9258,14 +9255,14 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9287,16 +9284,16 @@
         <v>138</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="M60" t="s" s="2">
-        <v>385</v>
-      </c>
       <c r="N60" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>80</v>
@@ -9345,7 +9342,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
@@ -9377,10 +9374,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9406,14 +9403,14 @@
         <v>113</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -9438,14 +9435,14 @@
         <v>80</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Y61" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="Z61" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="Z61" t="s" s="2">
-        <v>392</v>
-      </c>
       <c r="AA61" t="s" s="2">
         <v>80</v>
       </c>
@@ -9462,7 +9459,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>93</v>
@@ -9480,10 +9477,10 @@
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>80</v>
@@ -9494,10 +9491,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9520,17 +9517,17 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>80</v>
@@ -9579,7 +9576,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
@@ -9597,10 +9594,10 @@
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>80</v>
@@ -9611,10 +9608,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9637,17 +9634,17 @@
         <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>80</v>
@@ -9696,7 +9693,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -9714,24 +9711,24 @@
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="AM63" t="s" s="2">
+      <c r="AN63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO63" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>408</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9843,14 +9840,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9872,13 +9869,13 @@
         <v>138</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9960,10 +9957,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9989,13 +9986,13 @@
         <v>153</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -10045,16 +10042,16 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI66" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>105</v>
@@ -10077,10 +10074,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10106,13 +10103,13 @@
         <v>107</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10138,31 +10135,31 @@
         <v>80</v>
       </c>
       <c r="X67" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="Y67" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="Y67" t="s" s="2">
+      <c r="Z67" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="Z67" t="s" s="2">
+      <c r="AA67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF67" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>81</v>
@@ -10194,10 +10191,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10220,16 +10217,16 @@
         <v>94</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10279,7 +10276,7 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>81</v>
@@ -10297,7 +10294,7 @@
         <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>80</v>
@@ -10311,10 +10308,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10340,13 +10337,13 @@
         <v>153</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10396,7 +10393,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>81</v>
@@ -10428,10 +10425,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10454,19 +10451,19 @@
         <v>94</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="N70" t="s" s="2">
+      <c r="O70" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>80</v>
@@ -10515,7 +10512,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>81</v>
@@ -10533,13 +10530,13 @@
         <v>80</v>
       </c>
       <c r="AL70" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AM70" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="AM70" t="s" s="2">
+      <c r="AN70" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>80</v>
@@ -10547,10 +10544,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10662,14 +10659,14 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10691,13 +10688,13 @@
         <v>138</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10779,10 +10776,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10808,13 +10805,13 @@
         <v>153</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10864,16 +10861,16 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI73" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>105</v>
@@ -10896,10 +10893,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10925,13 +10922,13 @@
         <v>107</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10957,31 +10954,31 @@
         <v>80</v>
       </c>
       <c r="X74" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="Y74" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="Y74" t="s" s="2">
+      <c r="Z74" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="Z74" t="s" s="2">
+      <c r="AA74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF74" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>81</v>
@@ -11013,10 +11010,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11039,16 +11036,16 @@
         <v>94</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11098,7 +11095,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>81</v>
@@ -11116,7 +11113,7 @@
         <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>80</v>
@@ -11130,10 +11127,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11159,13 +11156,13 @@
         <v>153</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11215,7 +11212,7 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>81</v>
@@ -11247,10 +11244,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11273,16 +11270,16 @@
         <v>80</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11332,7 +11329,7 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>81</v>
@@ -11350,13 +11347,13 @@
         <v>80</v>
       </c>
       <c r="AL77" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AM77" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="AM77" t="s" s="2">
+      <c r="AN77" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>80</v>
@@ -11364,10 +11361,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11479,14 +11476,14 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11508,13 +11505,13 @@
         <v>138</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11596,14 +11593,14 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -11625,16 +11622,16 @@
         <v>138</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="M80" t="s" s="2">
-        <v>385</v>
-      </c>
       <c r="N80" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>80</v>
@@ -11683,7 +11680,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>81</v>
@@ -11715,10 +11712,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11744,13 +11741,13 @@
         <v>113</v>
       </c>
       <c r="L81" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11776,14 +11773,14 @@
         <v>80</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Y81" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="Z81" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="Z81" t="s" s="2">
-        <v>445</v>
-      </c>
       <c r="AA81" t="s" s="2">
         <v>80</v>
       </c>
@@ -11800,7 +11797,7 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>93</v>
@@ -11818,13 +11815,13 @@
         <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AM81" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="AM81" t="s" s="2">
+      <c r="AN81" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>80</v>
@@ -11832,10 +11829,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11858,13 +11855,13 @@
         <v>80</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11915,7 +11912,7 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>93</v>
@@ -11933,13 +11930,13 @@
         <v>80</v>
       </c>
       <c r="AL82" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AM82" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="AM82" t="s" s="2">
+      <c r="AN82" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>80</v>
@@ -11947,10 +11944,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11973,19 +11970,19 @@
         <v>94</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="N83" t="s" s="2">
+      <c r="O83" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>80</v>
@@ -12034,7 +12031,7 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>81</v>
@@ -12052,13 +12049,13 @@
         <v>80</v>
       </c>
       <c r="AL83" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AM83" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="AM83" t="s" s="2">
+      <c r="AN83" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>80</v>
@@ -12066,10 +12063,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12181,14 +12178,14 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -12210,13 +12207,13 @@
         <v>138</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12298,14 +12295,14 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12327,16 +12324,16 @@
         <v>138</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="M86" t="s" s="2">
-        <v>385</v>
-      </c>
       <c r="N86" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>80</v>
@@ -12385,7 +12382,7 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>81</v>
@@ -12417,10 +12414,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12443,16 +12440,16 @@
         <v>94</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12478,14 +12475,14 @@
         <v>80</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y87" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="Z87" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="Z87" t="s" s="2">
-        <v>472</v>
-      </c>
       <c r="AA87" t="s" s="2">
         <v>80</v>
       </c>
@@ -12502,7 +12499,7 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>81</v>
@@ -12520,13 +12517,13 @@
         <v>80</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>80</v>
@@ -12534,10 +12531,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12560,13 +12557,13 @@
         <v>94</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="L88" t="s" s="2">
+      <c r="M88" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12617,7 +12614,7 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>81</v>
@@ -12635,13 +12632,13 @@
         <v>80</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>80</v>
@@ -12649,10 +12646,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12675,13 +12672,13 @@
         <v>94</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="L89" t="s" s="2">
+      <c r="M89" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12732,7 +12729,7 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>81</v>
@@ -12750,7 +12747,7 @@
         <v>80</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>157</v>
@@ -12764,10 +12761,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12790,13 +12787,13 @@
         <v>80</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12835,7 +12832,7 @@
         <v>80</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AC90" s="2"/>
       <c r="AD90" t="s" s="2">
@@ -12845,7 +12842,7 @@
         <v>142</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>81</v>
@@ -12857,16 +12854,16 @@
         <v>80</v>
       </c>
       <c r="AJ90" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL90" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="AK90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL90" t="s" s="2">
+      <c r="AM90" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>80</v>
@@ -12877,10 +12874,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12992,14 +12989,14 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -13021,13 +13018,13 @@
         <v>138</v>
       </c>
       <c r="L92" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="M92" t="s" s="2">
+      <c r="N92" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13109,14 +13106,14 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -13138,16 +13135,16 @@
         <v>138</v>
       </c>
       <c r="L93" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="M93" t="s" s="2">
-        <v>385</v>
-      </c>
       <c r="N93" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>80</v>
@@ -13196,7 +13193,7 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>81</v>
@@ -13228,14 +13225,14 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -13257,16 +13254,16 @@
         <v>153</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="N94" t="s" s="2">
+      <c r="O94" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>80</v>
@@ -13315,7 +13312,7 @@
         <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>81</v>
@@ -13333,10 +13330,10 @@
         <v>80</v>
       </c>
       <c r="AL94" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AM94" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>80</v>
@@ -13347,10 +13344,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13373,19 +13370,19 @@
         <v>80</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L95" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="M95" t="s" s="2">
+      <c r="N95" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="N95" t="s" s="2">
+      <c r="O95" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>80</v>
@@ -13410,14 +13407,14 @@
         <v>80</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y95" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="Z95" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="Z95" t="s" s="2">
-        <v>506</v>
-      </c>
       <c r="AA95" t="s" s="2">
         <v>80</v>
       </c>
@@ -13434,7 +13431,7 @@
         <v>80</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>81</v>
@@ -13452,10 +13449,10 @@
         <v>80</v>
       </c>
       <c r="AL95" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AM95" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>80</v>
@@ -13466,10 +13463,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13492,17 +13489,17 @@
         <v>80</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="L96" t="s" s="2">
+      <c r="M96" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>80</v>
@@ -13551,7 +13548,7 @@
         <v>80</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>81</v>
@@ -13569,24 +13566,24 @@
         <v>80</v>
       </c>
       <c r="AL96" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AM96" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AM96" t="s" s="2">
-        <v>347</v>
-      </c>
       <c r="AN96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO96" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13609,16 +13606,16 @@
         <v>80</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="L97" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="M97" t="s" s="2">
+      <c r="N97" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -13668,7 +13665,7 @@
         <v>80</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>81</v>
@@ -13689,7 +13686,7 @@
         <v>80</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>80</v>
@@ -13700,10 +13697,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13729,13 +13726,13 @@
         <v>123</v>
       </c>
       <c r="L98" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="M98" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="M98" t="s" s="2">
+      <c r="N98" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -13785,7 +13782,7 @@
         <v>80</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>81</v>
@@ -13794,7 +13791,7 @@
         <v>93</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>105</v>
@@ -13803,10 +13800,10 @@
         <v>80</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>80</v>
@@ -13817,10 +13814,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13846,16 +13843,16 @@
         <v>113</v>
       </c>
       <c r="L99" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="M99" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="M99" t="s" s="2">
+      <c r="N99" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="N99" t="s" s="2">
+      <c r="O99" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>80</v>
@@ -13880,14 +13877,14 @@
         <v>80</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Y99" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="Z99" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="Z99" t="s" s="2">
-        <v>528</v>
-      </c>
       <c r="AA99" t="s" s="2">
         <v>80</v>
       </c>
@@ -13904,7 +13901,7 @@
         <v>80</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>81</v>
@@ -13922,7 +13919,7 @@
         <v>80</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>157</v>
@@ -13931,15 +13928,15 @@
         <v>80</v>
       </c>
       <c r="AO99" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13962,19 +13959,19 @@
         <v>80</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L100" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="M100" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="M100" t="s" s="2">
+      <c r="N100" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="N100" t="s" s="2">
+      <c r="O100" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>80</v>
@@ -14002,11 +13999,11 @@
         <v>117</v>
       </c>
       <c r="Y100" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="Z100" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="Z100" t="s" s="2">
-        <v>536</v>
-      </c>
       <c r="AA100" t="s" s="2">
         <v>80</v>
       </c>
@@ -14023,7 +14020,7 @@
         <v>80</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>81</v>
@@ -14041,7 +14038,7 @@
         <v>80</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>157</v>
@@ -14055,10 +14052,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14081,16 +14078,16 @@
         <v>80</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="L101" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="M101" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="M101" t="s" s="2">
+      <c r="N101" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>541</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14140,7 +14137,7 @@
         <v>80</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>81</v>
@@ -14149,7 +14146,7 @@
         <v>82</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>105</v>
@@ -14158,10 +14155,10 @@
         <v>80</v>
       </c>
       <c r="AL101" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AM101" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>544</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>80</v>
@@ -14172,10 +14169,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14198,19 +14195,19 @@
         <v>80</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L102" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="M102" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="M102" t="s" s="2">
+      <c r="N102" t="s" s="2">
         <v>547</v>
       </c>
-      <c r="N102" t="s" s="2">
+      <c r="O102" t="s" s="2">
         <v>548</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>549</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>80</v>
@@ -14238,11 +14235,11 @@
         <v>117</v>
       </c>
       <c r="Y102" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="Z102" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="Z102" t="s" s="2">
-        <v>551</v>
-      </c>
       <c r="AA102" t="s" s="2">
         <v>80</v>
       </c>
@@ -14259,7 +14256,7 @@
         <v>80</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>81</v>
@@ -14268,7 +14265,7 @@
         <v>93</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>105</v>
@@ -14277,7 +14274,7 @@
         <v>80</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>157</v>
@@ -14291,10 +14288,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14320,13 +14317,13 @@
         <v>83</v>
       </c>
       <c r="L103" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="M103" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="M103" t="s" s="2">
+      <c r="N103" t="s" s="2">
         <v>555</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>556</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -14376,7 +14373,7 @@
         <v>80</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>81</v>
@@ -14385,7 +14382,7 @@
         <v>82</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>105</v>
@@ -14394,10 +14391,10 @@
         <v>80</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>80</v>
@@ -14408,13 +14405,13 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="C104" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="B104" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="C104" t="s" s="2">
-        <v>559</v>
       </c>
       <c r="D104" t="s" s="2">
         <v>80</v>
@@ -14436,13 +14433,13 @@
         <v>80</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L104" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="M104" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -14493,7 +14490,7 @@
         <v>80</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>81</v>
@@ -14505,16 +14502,16 @@
         <v>80</v>
       </c>
       <c r="AJ104" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL104" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="AK104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL104" t="s" s="2">
+      <c r="AM104" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>80</v>
@@ -14525,10 +14522,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14640,14 +14637,14 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -14669,13 +14666,13 @@
         <v>138</v>
       </c>
       <c r="L106" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M106" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="M106" t="s" s="2">
+      <c r="N106" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -14757,14 +14754,14 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
@@ -14786,16 +14783,16 @@
         <v>138</v>
       </c>
       <c r="L107" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M107" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="M107" t="s" s="2">
-        <v>385</v>
-      </c>
       <c r="N107" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>80</v>
@@ -14844,7 +14841,7 @@
         <v>80</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>81</v>
@@ -14876,14 +14873,14 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
@@ -14905,16 +14902,16 @@
         <v>153</v>
       </c>
       <c r="L108" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="M108" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="M108" t="s" s="2">
+      <c r="N108" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="N108" t="s" s="2">
+      <c r="O108" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>80</v>
@@ -14963,7 +14960,7 @@
         <v>80</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>81</v>
@@ -14981,10 +14978,10 @@
         <v>80</v>
       </c>
       <c r="AL108" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AM108" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AM108" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>80</v>
@@ -14995,10 +14992,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15021,19 +15018,19 @@
         <v>80</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L109" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M109" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="M109" t="s" s="2">
+      <c r="N109" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="N109" t="s" s="2">
+      <c r="O109" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="O109" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>80</v>
@@ -15062,7 +15059,7 @@
       </c>
       <c r="Y109" s="2"/>
       <c r="Z109" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>80</v>
@@ -15080,7 +15077,7 @@
         <v>80</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>81</v>
@@ -15098,10 +15095,10 @@
         <v>80</v>
       </c>
       <c r="AL109" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AM109" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>80</v>
@@ -15112,10 +15109,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15138,17 +15135,17 @@
         <v>80</v>
       </c>
       <c r="K110" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="L110" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="L110" t="s" s="2">
+      <c r="M110" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>80</v>
@@ -15197,7 +15194,7 @@
         <v>80</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>81</v>
@@ -15215,24 +15212,24 @@
         <v>80</v>
       </c>
       <c r="AL110" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AM110" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AM110" t="s" s="2">
-        <v>347</v>
-      </c>
       <c r="AN110" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO110" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15255,16 +15252,16 @@
         <v>80</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="L111" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M111" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="M111" t="s" s="2">
+      <c r="N111" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -15314,7 +15311,7 @@
         <v>80</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>81</v>
@@ -15335,7 +15332,7 @@
         <v>80</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>80</v>
@@ -15346,10 +15343,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15375,13 +15372,13 @@
         <v>123</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M112" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="N112" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
@@ -15431,7 +15428,7 @@
         <v>80</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>81</v>
@@ -15440,7 +15437,7 @@
         <v>93</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>105</v>
@@ -15449,10 +15446,10 @@
         <v>80</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>80</v>
@@ -15463,10 +15460,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15492,16 +15489,16 @@
         <v>113</v>
       </c>
       <c r="L113" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="M113" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="M113" t="s" s="2">
+      <c r="N113" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="N113" t="s" s="2">
+      <c r="O113" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="O113" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>80</v>
@@ -15526,14 +15523,14 @@
         <v>80</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Y113" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="Z113" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="Z113" t="s" s="2">
-        <v>528</v>
-      </c>
       <c r="AA113" t="s" s="2">
         <v>80</v>
       </c>
@@ -15550,7 +15547,7 @@
         <v>80</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>81</v>
@@ -15568,7 +15565,7 @@
         <v>80</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>157</v>
@@ -15577,15 +15574,15 @@
         <v>80</v>
       </c>
       <c r="AO113" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15608,19 +15605,19 @@
         <v>80</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L114" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="M114" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="M114" t="s" s="2">
+      <c r="N114" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="N114" t="s" s="2">
+      <c r="O114" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="O114" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>80</v>
@@ -15648,11 +15645,11 @@
         <v>117</v>
       </c>
       <c r="Y114" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="Z114" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="Z114" t="s" s="2">
-        <v>536</v>
-      </c>
       <c r="AA114" t="s" s="2">
         <v>80</v>
       </c>
@@ -15669,7 +15666,7 @@
         <v>80</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>81</v>
@@ -15687,7 +15684,7 @@
         <v>80</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>157</v>
@@ -15701,10 +15698,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15727,16 +15724,16 @@
         <v>80</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L115" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="M115" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="M115" t="s" s="2">
+      <c r="N115" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>541</v>
       </c>
       <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
@@ -15786,7 +15783,7 @@
         <v>80</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>81</v>
@@ -15795,7 +15792,7 @@
         <v>82</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>105</v>
@@ -15804,10 +15801,10 @@
         <v>80</v>
       </c>
       <c r="AL115" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AM115" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="AM115" t="s" s="2">
-        <v>544</v>
       </c>
       <c r="AN115" t="s" s="2">
         <v>80</v>
@@ -15818,10 +15815,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -15844,19 +15841,19 @@
         <v>80</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L116" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="M116" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="M116" t="s" s="2">
+      <c r="N116" t="s" s="2">
         <v>547</v>
       </c>
-      <c r="N116" t="s" s="2">
+      <c r="O116" t="s" s="2">
         <v>548</v>
-      </c>
-      <c r="O116" t="s" s="2">
-        <v>549</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>80</v>
@@ -15884,11 +15881,11 @@
         <v>117</v>
       </c>
       <c r="Y116" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="Z116" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="Z116" t="s" s="2">
-        <v>551</v>
-      </c>
       <c r="AA116" t="s" s="2">
         <v>80</v>
       </c>
@@ -15905,7 +15902,7 @@
         <v>80</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>81</v>
@@ -15914,7 +15911,7 @@
         <v>93</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>105</v>
@@ -15923,7 +15920,7 @@
         <v>80</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>157</v>
@@ -15937,10 +15934,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -15966,13 +15963,13 @@
         <v>80</v>
       </c>
       <c r="L117" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="M117" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="M117" t="s" s="2">
+      <c r="N117" t="s" s="2">
         <v>555</v>
-      </c>
-      <c r="N117" t="s" s="2">
-        <v>556</v>
       </c>
       <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
@@ -16022,7 +16019,7 @@
         <v>80</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>81</v>
@@ -16031,7 +16028,7 @@
         <v>82</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>105</v>
@@ -16040,10 +16037,10 @@
         <v>80</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>80</v>
@@ -16054,13 +16051,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="C118" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="B118" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="C118" t="s" s="2">
-        <v>578</v>
       </c>
       <c r="D118" t="s" s="2">
         <v>80</v>
@@ -16082,13 +16079,13 @@
         <v>80</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L118" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="M118" t="s" s="2">
         <v>579</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>580</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
@@ -16139,7 +16136,7 @@
         <v>80</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>81</v>
@@ -16151,16 +16148,16 @@
         <v>80</v>
       </c>
       <c r="AJ118" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AK118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL118" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="AK118" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL118" t="s" s="2">
+      <c r="AM118" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="AM118" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>80</v>
@@ -16171,10 +16168,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16286,14 +16283,14 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" t="s" s="2">
@@ -16315,13 +16312,13 @@
         <v>138</v>
       </c>
       <c r="L120" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M120" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="M120" t="s" s="2">
+      <c r="N120" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
@@ -16403,14 +16400,14 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
@@ -16432,16 +16429,16 @@
         <v>138</v>
       </c>
       <c r="L121" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M121" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="M121" t="s" s="2">
-        <v>385</v>
-      </c>
       <c r="N121" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>80</v>
@@ -16490,7 +16487,7 @@
         <v>80</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>81</v>
@@ -16522,14 +16519,14 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
@@ -16551,16 +16548,16 @@
         <v>153</v>
       </c>
       <c r="L122" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="M122" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="M122" t="s" s="2">
+      <c r="N122" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="N122" t="s" s="2">
+      <c r="O122" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>80</v>
@@ -16609,7 +16606,7 @@
         <v>80</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>81</v>
@@ -16627,10 +16624,10 @@
         <v>80</v>
       </c>
       <c r="AL122" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AM122" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AM122" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>80</v>
@@ -16641,10 +16638,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -16667,19 +16664,19 @@
         <v>80</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L123" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M123" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="M123" t="s" s="2">
+      <c r="N123" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="N123" t="s" s="2">
+      <c r="O123" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="O123" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>80</v>
@@ -16708,7 +16705,7 @@
       </c>
       <c r="Y123" s="2"/>
       <c r="Z123" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AA123" t="s" s="2">
         <v>80</v>
@@ -16726,7 +16723,7 @@
         <v>80</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>81</v>
@@ -16744,10 +16741,10 @@
         <v>80</v>
       </c>
       <c r="AL123" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AM123" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AM123" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="AN123" t="s" s="2">
         <v>80</v>
@@ -16758,10 +16755,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -16784,17 +16781,17 @@
         <v>80</v>
       </c>
       <c r="K124" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="L124" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="L124" t="s" s="2">
+      <c r="M124" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>80</v>
@@ -16843,7 +16840,7 @@
         <v>80</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>81</v>
@@ -16861,24 +16858,24 @@
         <v>80</v>
       </c>
       <c r="AL124" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AM124" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AM124" t="s" s="2">
-        <v>347</v>
-      </c>
       <c r="AN124" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO124" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -16901,16 +16898,16 @@
         <v>80</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="L125" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M125" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="M125" t="s" s="2">
+      <c r="N125" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
@@ -16960,7 +16957,7 @@
         <v>80</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>81</v>
@@ -16981,7 +16978,7 @@
         <v>80</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>80</v>
@@ -16992,10 +16989,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17021,13 +17018,13 @@
         <v>123</v>
       </c>
       <c r="L126" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="M126" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="M126" t="s" s="2">
+      <c r="N126" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="O126" s="2"/>
       <c r="P126" t="s" s="2">
@@ -17077,7 +17074,7 @@
         <v>80</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>81</v>
@@ -17086,7 +17083,7 @@
         <v>93</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>105</v>
@@ -17095,10 +17092,10 @@
         <v>80</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>80</v>
@@ -17109,10 +17106,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17138,16 +17135,16 @@
         <v>113</v>
       </c>
       <c r="L127" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="M127" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="M127" t="s" s="2">
+      <c r="N127" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="N127" t="s" s="2">
+      <c r="O127" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="O127" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>80</v>
@@ -17172,14 +17169,14 @@
         <v>80</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Y127" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="Z127" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="Z127" t="s" s="2">
-        <v>528</v>
-      </c>
       <c r="AA127" t="s" s="2">
         <v>80</v>
       </c>
@@ -17196,7 +17193,7 @@
         <v>80</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>81</v>
@@ -17214,7 +17211,7 @@
         <v>80</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>157</v>
@@ -17223,15 +17220,15 @@
         <v>80</v>
       </c>
       <c r="AO127" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17254,19 +17251,19 @@
         <v>80</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L128" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="M128" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="M128" t="s" s="2">
+      <c r="N128" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="N128" t="s" s="2">
+      <c r="O128" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="O128" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>80</v>
@@ -17294,11 +17291,11 @@
         <v>117</v>
       </c>
       <c r="Y128" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="Z128" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="Z128" t="s" s="2">
-        <v>536</v>
-      </c>
       <c r="AA128" t="s" s="2">
         <v>80</v>
       </c>
@@ -17315,7 +17312,7 @@
         <v>80</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>81</v>
@@ -17333,7 +17330,7 @@
         <v>80</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AM128" t="s" s="2">
         <v>157</v>
@@ -17347,10 +17344,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -17373,16 +17370,16 @@
         <v>80</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="L129" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="M129" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="M129" t="s" s="2">
+      <c r="N129" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>541</v>
       </c>
       <c r="O129" s="2"/>
       <c r="P129" t="s" s="2">
@@ -17432,7 +17429,7 @@
         <v>80</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>81</v>
@@ -17441,7 +17438,7 @@
         <v>82</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AJ129" t="s" s="2">
         <v>105</v>
@@ -17450,10 +17447,10 @@
         <v>80</v>
       </c>
       <c r="AL129" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AM129" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="AM129" t="s" s="2">
-        <v>544</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>80</v>
@@ -17464,10 +17461,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -17490,19 +17487,19 @@
         <v>80</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L130" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="M130" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="M130" t="s" s="2">
+      <c r="N130" t="s" s="2">
         <v>547</v>
       </c>
-      <c r="N130" t="s" s="2">
+      <c r="O130" t="s" s="2">
         <v>548</v>
-      </c>
-      <c r="O130" t="s" s="2">
-        <v>549</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>80</v>
@@ -17530,11 +17527,11 @@
         <v>117</v>
       </c>
       <c r="Y130" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="Z130" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="Z130" t="s" s="2">
-        <v>551</v>
-      </c>
       <c r="AA130" t="s" s="2">
         <v>80</v>
       </c>
@@ -17551,7 +17548,7 @@
         <v>80</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>81</v>
@@ -17560,7 +17557,7 @@
         <v>93</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>105</v>
@@ -17569,7 +17566,7 @@
         <v>80</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>157</v>
@@ -17583,10 +17580,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -17609,16 +17606,16 @@
         <v>80</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L131" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="M131" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="M131" t="s" s="2">
+      <c r="N131" t="s" s="2">
         <v>555</v>
-      </c>
-      <c r="N131" t="s" s="2">
-        <v>556</v>
       </c>
       <c r="O131" s="2"/>
       <c r="P131" t="s" s="2">
@@ -17668,7 +17665,7 @@
         <v>80</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>81</v>
@@ -17677,7 +17674,7 @@
         <v>82</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AJ131" t="s" s="2">
         <v>105</v>
@@ -17686,10 +17683,10 @@
         <v>80</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AN131" t="s" s="2">
         <v>80</v>
@@ -17700,10 +17697,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="B132" t="s" s="2">
         <v>594</v>
-      </c>
-      <c r="B132" t="s" s="2">
-        <v>595</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -17815,14 +17812,14 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="B133" t="s" s="2">
         <v>596</v>
-      </c>
-      <c r="B133" t="s" s="2">
-        <v>597</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" t="s" s="2">
@@ -17844,13 +17841,13 @@
         <v>138</v>
       </c>
       <c r="L133" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M133" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="M133" t="s" s="2">
+      <c r="N133" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="N133" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="O133" s="2"/>
       <c r="P133" t="s" s="2">
@@ -17932,14 +17929,14 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="B134" t="s" s="2">
         <v>598</v>
-      </c>
-      <c r="B134" t="s" s="2">
-        <v>599</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" t="s" s="2">
@@ -17961,16 +17958,16 @@
         <v>138</v>
       </c>
       <c r="L134" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M134" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="M134" t="s" s="2">
-        <v>385</v>
-      </c>
       <c r="N134" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O134" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>80</v>
@@ -18019,7 +18016,7 @@
         <v>80</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>81</v>
@@ -18051,14 +18048,14 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="B135" t="s" s="2">
         <v>600</v>
-      </c>
-      <c r="B135" t="s" s="2">
-        <v>601</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135" t="s" s="2">
@@ -18080,16 +18077,16 @@
         <v>153</v>
       </c>
       <c r="L135" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="M135" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="M135" t="s" s="2">
+      <c r="N135" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="N135" t="s" s="2">
+      <c r="O135" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="O135" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>80</v>
@@ -18138,7 +18135,7 @@
         <v>80</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>81</v>
@@ -18156,10 +18153,10 @@
         <v>80</v>
       </c>
       <c r="AL135" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AM135" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AM135" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="AN135" t="s" s="2">
         <v>80</v>
@@ -18170,10 +18167,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="B136" t="s" s="2">
         <v>602</v>
-      </c>
-      <c r="B136" t="s" s="2">
-        <v>603</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -18196,19 +18193,19 @@
         <v>80</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L136" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M136" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="M136" t="s" s="2">
+      <c r="N136" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="N136" t="s" s="2">
+      <c r="O136" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="O136" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>80</v>
@@ -18237,7 +18234,7 @@
       </c>
       <c r="Y136" s="2"/>
       <c r="Z136" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AA136" t="s" s="2">
         <v>80</v>
@@ -18255,7 +18252,7 @@
         <v>80</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>81</v>
@@ -18273,10 +18270,10 @@
         <v>80</v>
       </c>
       <c r="AL136" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AM136" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AM136" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="AN136" t="s" s="2">
         <v>80</v>
@@ -18287,10 +18284,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="B137" t="s" s="2">
         <v>604</v>
-      </c>
-      <c r="B137" t="s" s="2">
-        <v>605</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -18313,17 +18310,17 @@
         <v>80</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L137" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="M137" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="M137" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P137" t="s" s="2">
         <v>80</v>
@@ -18372,7 +18369,7 @@
         <v>80</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>81</v>
@@ -18390,24 +18387,24 @@
         <v>80</v>
       </c>
       <c r="AL137" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AM137" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AM137" t="s" s="2">
-        <v>347</v>
-      </c>
       <c r="AN137" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO137" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="B138" t="s" s="2">
         <v>607</v>
-      </c>
-      <c r="B138" t="s" s="2">
-        <v>608</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -18430,16 +18427,16 @@
         <v>80</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="L138" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M138" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="M138" t="s" s="2">
+      <c r="N138" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="N138" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="O138" s="2"/>
       <c r="P138" t="s" s="2">
@@ -18489,7 +18486,7 @@
         <v>80</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>81</v>
@@ -18510,7 +18507,7 @@
         <v>80</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AN138" t="s" s="2">
         <v>80</v>
@@ -18521,10 +18518,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="B139" t="s" s="2">
         <v>609</v>
-      </c>
-      <c r="B139" t="s" s="2">
-        <v>610</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -18550,13 +18547,13 @@
         <v>123</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M139" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="N139" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="O139" s="2"/>
       <c r="P139" t="s" s="2">
@@ -18606,7 +18603,7 @@
         <v>80</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>81</v>
@@ -18615,7 +18612,7 @@
         <v>93</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>105</v>
@@ -18624,10 +18621,10 @@
         <v>80</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AN139" t="s" s="2">
         <v>80</v>
@@ -18638,10 +18635,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="B140" t="s" s="2">
         <v>611</v>
-      </c>
-      <c r="B140" t="s" s="2">
-        <v>612</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -18667,16 +18664,16 @@
         <v>113</v>
       </c>
       <c r="L140" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="M140" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="M140" t="s" s="2">
+      <c r="N140" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="N140" t="s" s="2">
+      <c r="O140" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="O140" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="P140" t="s" s="2">
         <v>80</v>
@@ -18701,14 +18698,14 @@
         <v>80</v>
       </c>
       <c r="X140" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Y140" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="Z140" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="Z140" t="s" s="2">
-        <v>528</v>
-      </c>
       <c r="AA140" t="s" s="2">
         <v>80</v>
       </c>
@@ -18725,7 +18722,7 @@
         <v>80</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>81</v>
@@ -18743,7 +18740,7 @@
         <v>80</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>157</v>
@@ -18752,15 +18749,15 @@
         <v>80</v>
       </c>
       <c r="AO140" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="B141" t="s" s="2">
         <v>613</v>
-      </c>
-      <c r="B141" t="s" s="2">
-        <v>614</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -18783,19 +18780,19 @@
         <v>80</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L141" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="M141" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="M141" t="s" s="2">
+      <c r="N141" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="N141" t="s" s="2">
+      <c r="O141" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="O141" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>80</v>
@@ -18823,11 +18820,11 @@
         <v>117</v>
       </c>
       <c r="Y141" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="Z141" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="Z141" t="s" s="2">
-        <v>536</v>
-      </c>
       <c r="AA141" t="s" s="2">
         <v>80</v>
       </c>
@@ -18844,7 +18841,7 @@
         <v>80</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>81</v>
@@ -18862,7 +18859,7 @@
         <v>80</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AM141" t="s" s="2">
         <v>157</v>
@@ -18876,10 +18873,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="B142" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="B142" t="s" s="2">
-        <v>616</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -18902,16 +18899,16 @@
         <v>80</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L142" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="M142" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="M142" t="s" s="2">
+      <c r="N142" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="N142" t="s" s="2">
-        <v>541</v>
       </c>
       <c r="O142" s="2"/>
       <c r="P142" t="s" s="2">
@@ -18961,7 +18958,7 @@
         <v>80</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>81</v>
@@ -18970,7 +18967,7 @@
         <v>82</v>
       </c>
       <c r="AI142" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AJ142" t="s" s="2">
         <v>105</v>
@@ -18979,10 +18976,10 @@
         <v>80</v>
       </c>
       <c r="AL142" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AM142" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="AM142" t="s" s="2">
-        <v>544</v>
       </c>
       <c r="AN142" t="s" s="2">
         <v>80</v>
@@ -18993,10 +18990,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="B143" t="s" s="2">
         <v>617</v>
-      </c>
-      <c r="B143" t="s" s="2">
-        <v>618</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -19019,19 +19016,19 @@
         <v>80</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L143" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="M143" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="M143" t="s" s="2">
+      <c r="N143" t="s" s="2">
         <v>547</v>
       </c>
-      <c r="N143" t="s" s="2">
+      <c r="O143" t="s" s="2">
         <v>548</v>
-      </c>
-      <c r="O143" t="s" s="2">
-        <v>549</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>80</v>
@@ -19059,11 +19056,11 @@
         <v>117</v>
       </c>
       <c r="Y143" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="Z143" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="Z143" t="s" s="2">
-        <v>551</v>
-      </c>
       <c r="AA143" t="s" s="2">
         <v>80</v>
       </c>
@@ -19080,7 +19077,7 @@
         <v>80</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>81</v>
@@ -19089,7 +19086,7 @@
         <v>93</v>
       </c>
       <c r="AI143" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AJ143" t="s" s="2">
         <v>105</v>
@@ -19098,7 +19095,7 @@
         <v>80</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AM143" t="s" s="2">
         <v>157</v>
@@ -19112,10 +19109,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="B144" t="s" s="2">
         <v>619</v>
-      </c>
-      <c r="B144" t="s" s="2">
-        <v>620</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -19141,13 +19138,13 @@
         <v>80</v>
       </c>
       <c r="L144" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="M144" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="M144" t="s" s="2">
+      <c r="N144" t="s" s="2">
         <v>555</v>
-      </c>
-      <c r="N144" t="s" s="2">
-        <v>556</v>
       </c>
       <c r="O144" s="2"/>
       <c r="P144" t="s" s="2">
@@ -19197,7 +19194,7 @@
         <v>80</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>81</v>
@@ -19206,7 +19203,7 @@
         <v>82</v>
       </c>
       <c r="AI144" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AJ144" t="s" s="2">
         <v>105</v>
@@ -19215,10 +19212,10 @@
         <v>80</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AM144" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AN144" t="s" s="2">
         <v>80</v>
@@ -19229,13 +19226,13 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="B145" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="C145" t="s" s="2">
         <v>621</v>
-      </c>
-      <c r="B145" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="C145" t="s" s="2">
-        <v>622</v>
       </c>
       <c r="D145" t="s" s="2">
         <v>80</v>
@@ -19257,13 +19254,13 @@
         <v>80</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L145" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="M145" t="s" s="2">
         <v>623</v>
-      </c>
-      <c r="M145" t="s" s="2">
-        <v>624</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" s="2"/>
@@ -19314,7 +19311,7 @@
         <v>80</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>81</v>
@@ -19326,16 +19323,16 @@
         <v>80</v>
       </c>
       <c r="AJ145" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AK145" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL145" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="AK145" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL145" t="s" s="2">
+      <c r="AM145" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="AM145" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="AN145" t="s" s="2">
         <v>80</v>
@@ -19346,10 +19343,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -19461,14 +19458,14 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E147" s="2"/>
       <c r="F147" t="s" s="2">
@@ -19490,13 +19487,13 @@
         <v>138</v>
       </c>
       <c r="L147" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M147" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="M147" t="s" s="2">
+      <c r="N147" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="O147" s="2"/>
       <c r="P147" t="s" s="2">
@@ -19578,14 +19575,14 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E148" s="2"/>
       <c r="F148" t="s" s="2">
@@ -19607,16 +19604,16 @@
         <v>138</v>
       </c>
       <c r="L148" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M148" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="M148" t="s" s="2">
-        <v>385</v>
-      </c>
       <c r="N148" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O148" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P148" t="s" s="2">
         <v>80</v>
@@ -19665,7 +19662,7 @@
         <v>80</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>81</v>
@@ -19697,14 +19694,14 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149" t="s" s="2">
@@ -19726,16 +19723,16 @@
         <v>153</v>
       </c>
       <c r="L149" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="M149" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="M149" t="s" s="2">
+      <c r="N149" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="N149" t="s" s="2">
+      <c r="O149" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="O149" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="P149" t="s" s="2">
         <v>80</v>
@@ -19784,7 +19781,7 @@
         <v>80</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>81</v>
@@ -19802,10 +19799,10 @@
         <v>80</v>
       </c>
       <c r="AL149" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AM149" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AM149" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="AN149" t="s" s="2">
         <v>80</v>
@@ -19816,10 +19813,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -19842,19 +19839,19 @@
         <v>80</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L150" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M150" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="M150" t="s" s="2">
+      <c r="N150" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="N150" t="s" s="2">
+      <c r="O150" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="O150" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="P150" t="s" s="2">
         <v>80</v>
@@ -19864,7 +19861,7 @@
         <v>80</v>
       </c>
       <c r="S150" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="T150" t="s" s="2">
         <v>80</v>
@@ -19879,14 +19876,14 @@
         <v>80</v>
       </c>
       <c r="X150" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y150" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="Z150" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="Z150" t="s" s="2">
-        <v>506</v>
-      </c>
       <c r="AA150" t="s" s="2">
         <v>80</v>
       </c>
@@ -19903,7 +19900,7 @@
         <v>80</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>81</v>
@@ -19921,10 +19918,10 @@
         <v>80</v>
       </c>
       <c r="AL150" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AM150" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AM150" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="AN150" t="s" s="2">
         <v>80</v>
@@ -19935,10 +19932,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -19961,17 +19958,17 @@
         <v>80</v>
       </c>
       <c r="K151" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="L151" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="L151" t="s" s="2">
+      <c r="M151" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="M151" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>80</v>
@@ -20020,7 +20017,7 @@
         <v>80</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>81</v>
@@ -20038,24 +20035,24 @@
         <v>80</v>
       </c>
       <c r="AL151" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AM151" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AM151" t="s" s="2">
-        <v>347</v>
-      </c>
       <c r="AN151" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO151" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -20078,16 +20075,16 @@
         <v>80</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="L152" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M152" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="M152" t="s" s="2">
+      <c r="N152" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="N152" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="O152" s="2"/>
       <c r="P152" t="s" s="2">
@@ -20137,7 +20134,7 @@
         <v>80</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>81</v>
@@ -20158,7 +20155,7 @@
         <v>80</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AN152" t="s" s="2">
         <v>80</v>
@@ -20169,10 +20166,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -20198,13 +20195,13 @@
         <v>123</v>
       </c>
       <c r="L153" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="M153" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="M153" t="s" s="2">
+      <c r="N153" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="N153" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="O153" s="2"/>
       <c r="P153" t="s" s="2">
@@ -20254,7 +20251,7 @@
         <v>80</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>81</v>
@@ -20263,7 +20260,7 @@
         <v>93</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AJ153" t="s" s="2">
         <v>105</v>
@@ -20272,10 +20269,10 @@
         <v>80</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AM153" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AN153" t="s" s="2">
         <v>80</v>
@@ -20286,10 +20283,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -20315,16 +20312,16 @@
         <v>113</v>
       </c>
       <c r="L154" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="M154" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="M154" t="s" s="2">
+      <c r="N154" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="N154" t="s" s="2">
+      <c r="O154" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="O154" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="P154" t="s" s="2">
         <v>80</v>
@@ -20349,14 +20346,14 @@
         <v>80</v>
       </c>
       <c r="X154" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Y154" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="Z154" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="Z154" t="s" s="2">
-        <v>528</v>
-      </c>
       <c r="AA154" t="s" s="2">
         <v>80</v>
       </c>
@@ -20373,7 +20370,7 @@
         <v>80</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>81</v>
@@ -20391,7 +20388,7 @@
         <v>80</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AM154" t="s" s="2">
         <v>157</v>
@@ -20400,15 +20397,15 @@
         <v>80</v>
       </c>
       <c r="AO154" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -20431,19 +20428,19 @@
         <v>80</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L155" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="M155" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="M155" t="s" s="2">
+      <c r="N155" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="N155" t="s" s="2">
+      <c r="O155" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="O155" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>80</v>
@@ -20471,11 +20468,11 @@
         <v>117</v>
       </c>
       <c r="Y155" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="Z155" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="Z155" t="s" s="2">
-        <v>536</v>
-      </c>
       <c r="AA155" t="s" s="2">
         <v>80</v>
       </c>
@@ -20492,7 +20489,7 @@
         <v>80</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>81</v>
@@ -20510,7 +20507,7 @@
         <v>80</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AM155" t="s" s="2">
         <v>157</v>
@@ -20524,10 +20521,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -20550,16 +20547,16 @@
         <v>80</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="L156" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="M156" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="M156" t="s" s="2">
+      <c r="N156" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="N156" t="s" s="2">
-        <v>541</v>
       </c>
       <c r="O156" s="2"/>
       <c r="P156" t="s" s="2">
@@ -20609,7 +20606,7 @@
         <v>80</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>81</v>
@@ -20618,7 +20615,7 @@
         <v>82</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AJ156" t="s" s="2">
         <v>105</v>
@@ -20627,10 +20624,10 @@
         <v>80</v>
       </c>
       <c r="AL156" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AM156" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="AM156" t="s" s="2">
-        <v>544</v>
       </c>
       <c r="AN156" t="s" s="2">
         <v>80</v>
@@ -20641,10 +20638,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -20667,19 +20664,19 @@
         <v>80</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L157" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="M157" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="M157" t="s" s="2">
+      <c r="N157" t="s" s="2">
         <v>547</v>
       </c>
-      <c r="N157" t="s" s="2">
+      <c r="O157" t="s" s="2">
         <v>548</v>
-      </c>
-      <c r="O157" t="s" s="2">
-        <v>549</v>
       </c>
       <c r="P157" t="s" s="2">
         <v>80</v>
@@ -20707,11 +20704,11 @@
         <v>117</v>
       </c>
       <c r="Y157" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="Z157" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="Z157" t="s" s="2">
-        <v>551</v>
-      </c>
       <c r="AA157" t="s" s="2">
         <v>80</v>
       </c>
@@ -20728,7 +20725,7 @@
         <v>80</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>81</v>
@@ -20737,7 +20734,7 @@
         <v>93</v>
       </c>
       <c r="AI157" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AJ157" t="s" s="2">
         <v>105</v>
@@ -20746,7 +20743,7 @@
         <v>80</v>
       </c>
       <c r="AL157" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AM157" t="s" s="2">
         <v>157</v>
@@ -20760,10 +20757,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -20789,13 +20786,13 @@
         <v>80</v>
       </c>
       <c r="L158" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="M158" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="M158" t="s" s="2">
+      <c r="N158" t="s" s="2">
         <v>555</v>
-      </c>
-      <c r="N158" t="s" s="2">
-        <v>556</v>
       </c>
       <c r="O158" s="2"/>
       <c r="P158" t="s" s="2">
@@ -20845,7 +20842,7 @@
         <v>80</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>81</v>
@@ -20854,7 +20851,7 @@
         <v>82</v>
       </c>
       <c r="AI158" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AJ158" t="s" s="2">
         <v>105</v>
@@ -20863,10 +20860,10 @@
         <v>80</v>
       </c>
       <c r="AL158" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AN158" t="s" s="2">
         <v>80</v>

--- a/ig/ch-lab-report/StructureDefinition-ch-lab-report-composition.xlsx
+++ b/ig/ch-lab-report/StructureDefinition-ch-lab-report-composition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5899" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5899" uniqueCount="637">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T08:59:06+00:00</t>
+    <t>2025-05-22T14:17:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch)</t>
   </si>
   <si>
-    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(work))</t>
+    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -935,16 +935,13 @@
     <t>The clinical domain of the laboratory performing the observation (e.g. microbiology, toxicology, chemistry)</t>
   </si>
   <si>
-    <t>A concept that may be defined by a formal reference to a terminology or ontology or may be provided by text.</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
+    <t>A categorization for the type of the composition - helps for indexing and searching. This may be implied by or derived from the code specified in the Composition Type.</t>
+  </si>
+  <si>
+    <t>This is a metadata field from [XDS/MHD](http://wiki.ihe.net/index.php?title=Mobile_access_to_Health_Documents_(MHD)).</t>
   </si>
   <si>
     <t>http://hl7.eu/fhir/laboratory/ValueSet/lab-studyType-eu-lab</t>
-  </si>
-  <si>
-    <t>CD</t>
   </si>
   <si>
     <t>Composition.category:specialty</t>
@@ -1263,7 +1260,7 @@
     <t>Composition.attester.party</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|RelatedPerson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization)
 </t>
   </si>
   <si>
@@ -1591,7 +1588,7 @@
     <t>Composition.section.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|Device|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|RelatedPerson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|Device|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization)
 </t>
   </si>
   <si>
@@ -2318,15 +2315,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="72.36328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.06640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.65625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="62.0390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="37.77734375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="23.7109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2337,27 +2334,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="65.28515625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="73.84765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="55.96875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="63.30859375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="59.37109375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="73.69140625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="50.8984375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="63.17578125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6585,7 +6582,7 @@
         <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>292</v>
@@ -6656,36 +6653,36 @@
         <v>82</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>80</v>
+        <v>287</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>80</v>
+        <v>289</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>80</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>278</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>80</v>
@@ -6704,13 +6701,13 @@
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>292</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>294</v>
@@ -6748,7 +6745,7 @@
       </c>
       <c r="Y38" s="2"/>
       <c r="Z38" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>80</v>
@@ -6775,33 +6772,33 @@
         <v>82</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>80</v>
+        <v>287</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>80</v>
+        <v>289</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>80</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6824,19 +6821,19 @@
         <v>94</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>80</v>
@@ -6885,7 +6882,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -6903,24 +6900,24 @@
         <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AN39" t="s" s="2">
+      <c r="AO39" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>311</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7032,10 +7029,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7149,10 +7146,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7266,10 +7263,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7383,10 +7380,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7500,10 +7497,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7617,10 +7614,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7643,17 +7640,17 @@
         <v>94</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7702,7 +7699,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -7717,27 +7714,27 @@
         <v>105</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AM46" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="AN46" t="s" s="2">
+      <c r="AO46" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>327</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7760,19 +7757,19 @@
         <v>94</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="N47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
@@ -7821,7 +7818,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>93</v>
@@ -7836,27 +7833,27 @@
         <v>105</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AN47" t="s" s="2">
+      <c r="AO47" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>338</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7879,17 +7876,17 @@
         <v>94</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -7938,7 +7935,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>93</v>
@@ -7953,27 +7950,27 @@
         <v>105</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AN48" t="s" s="2">
+      <c r="AO48" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>348</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8085,10 +8082,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8202,10 +8199,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8319,10 +8316,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8436,10 +8433,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8553,10 +8550,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8670,10 +8667,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8699,13 +8696,13 @@
         <v>153</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8755,7 +8752,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>93</v>
@@ -8773,13 +8770,13 @@
         <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AM55" t="s" s="2">
+      <c r="AN55" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>80</v>
@@ -8787,10 +8784,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8816,13 +8813,13 @@
         <v>113</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8851,11 +8848,11 @@
         <v>258</v>
       </c>
       <c r="Y56" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="Z56" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="Z56" t="s" s="2">
-        <v>367</v>
-      </c>
       <c r="AA56" t="s" s="2">
         <v>80</v>
       </c>
@@ -8872,7 +8869,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -8890,13 +8887,13 @@
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AN56" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>80</v>
@@ -8904,10 +8901,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8930,19 +8927,19 @@
         <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="N57" t="s" s="2">
+      <c r="O57" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -8991,7 +8988,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -9009,13 +9006,13 @@
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="AM57" t="s" s="2">
+      <c r="AN57" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>80</v>
@@ -9023,10 +9020,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9138,10 +9135,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9255,14 +9252,14 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9284,10 +9281,10 @@
         <v>138</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="N60" t="s" s="2">
         <v>208</v>
@@ -9342,7 +9339,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
@@ -9374,10 +9371,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9403,14 +9400,14 @@
         <v>113</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -9438,11 +9435,11 @@
         <v>258</v>
       </c>
       <c r="Y61" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="Z61" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="Z61" t="s" s="2">
-        <v>391</v>
-      </c>
       <c r="AA61" t="s" s="2">
         <v>80</v>
       </c>
@@ -9459,7 +9456,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>93</v>
@@ -9477,10 +9474,10 @@
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>80</v>
@@ -9491,10 +9488,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9517,17 +9514,17 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>80</v>
@@ -9576,7 +9573,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
@@ -9594,10 +9591,10 @@
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>80</v>
@@ -9608,10 +9605,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9634,17 +9631,17 @@
         <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>80</v>
@@ -9693,7 +9690,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -9711,24 +9708,24 @@
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="AM63" t="s" s="2">
+      <c r="AN63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO63" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>407</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9840,10 +9837,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9957,10 +9954,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10074,10 +10071,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10191,10 +10188,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10308,10 +10305,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10425,10 +10422,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10451,19 +10448,19 @@
         <v>94</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="N70" t="s" s="2">
+      <c r="O70" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>80</v>
@@ -10512,7 +10509,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>81</v>
@@ -10530,13 +10527,13 @@
         <v>80</v>
       </c>
       <c r="AL70" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AM70" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="AM70" t="s" s="2">
+      <c r="AN70" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>80</v>
@@ -10544,10 +10541,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10659,10 +10656,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10776,10 +10773,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10893,10 +10890,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11010,10 +11007,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11127,10 +11124,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11244,10 +11241,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11270,16 +11267,16 @@
         <v>80</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11329,7 +11326,7 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>81</v>
@@ -11347,13 +11344,13 @@
         <v>80</v>
       </c>
       <c r="AL77" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AM77" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="AM77" t="s" s="2">
+      <c r="AN77" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>80</v>
@@ -11361,10 +11358,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11476,10 +11473,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11593,14 +11590,14 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -11622,10 +11619,10 @@
         <v>138</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="N80" t="s" s="2">
         <v>208</v>
@@ -11680,7 +11677,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>81</v>
@@ -11712,10 +11709,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11741,13 +11738,13 @@
         <v>113</v>
       </c>
       <c r="L81" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11776,11 +11773,11 @@
         <v>258</v>
       </c>
       <c r="Y81" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="Z81" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="Z81" t="s" s="2">
-        <v>444</v>
-      </c>
       <c r="AA81" t="s" s="2">
         <v>80</v>
       </c>
@@ -11797,7 +11794,7 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>93</v>
@@ -11815,13 +11812,13 @@
         <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AM81" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="AM81" t="s" s="2">
+      <c r="AN81" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>80</v>
@@ -11829,10 +11826,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11855,13 +11852,13 @@
         <v>80</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11912,7 +11909,7 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>93</v>
@@ -11930,13 +11927,13 @@
         <v>80</v>
       </c>
       <c r="AL82" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AM82" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="AM82" t="s" s="2">
+      <c r="AN82" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>80</v>
@@ -11944,10 +11941,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11970,19 +11967,19 @@
         <v>94</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="N83" t="s" s="2">
+      <c r="O83" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>80</v>
@@ -12031,7 +12028,7 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>81</v>
@@ -12049,13 +12046,13 @@
         <v>80</v>
       </c>
       <c r="AL83" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AM83" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="AM83" t="s" s="2">
+      <c r="AN83" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>80</v>
@@ -12063,10 +12060,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12178,10 +12175,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12295,14 +12292,14 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12324,10 +12321,10 @@
         <v>138</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="N86" t="s" s="2">
         <v>208</v>
@@ -12382,7 +12379,7 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>81</v>
@@ -12414,10 +12411,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12443,13 +12440,13 @@
         <v>266</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12478,11 +12475,11 @@
         <v>283</v>
       </c>
       <c r="Y87" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="Z87" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="Z87" t="s" s="2">
-        <v>471</v>
-      </c>
       <c r="AA87" t="s" s="2">
         <v>80</v>
       </c>
@@ -12499,7 +12496,7 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>81</v>
@@ -12523,7 +12520,7 @@
         <v>275</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>80</v>
@@ -12531,10 +12528,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12557,13 +12554,13 @@
         <v>94</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="L88" t="s" s="2">
+      <c r="M88" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12614,7 +12611,7 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>81</v>
@@ -12632,13 +12629,13 @@
         <v>80</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>80</v>
@@ -12646,10 +12643,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12672,13 +12669,13 @@
         <v>94</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="L89" t="s" s="2">
+      <c r="M89" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>481</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12729,7 +12726,7 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>81</v>
@@ -12747,7 +12744,7 @@
         <v>80</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>157</v>
@@ -12761,10 +12758,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12787,13 +12784,13 @@
         <v>80</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12832,7 +12829,7 @@
         <v>80</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AC90" s="2"/>
       <c r="AD90" t="s" s="2">
@@ -12842,7 +12839,7 @@
         <v>142</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>81</v>
@@ -12854,16 +12851,16 @@
         <v>80</v>
       </c>
       <c r="AJ90" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL90" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="AK90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL90" t="s" s="2">
+      <c r="AM90" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>489</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>80</v>
@@ -12874,10 +12871,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12989,10 +12986,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13106,14 +13103,14 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -13135,10 +13132,10 @@
         <v>138</v>
       </c>
       <c r="L93" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="N93" t="s" s="2">
         <v>208</v>
@@ -13193,7 +13190,7 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>81</v>
@@ -13225,14 +13222,14 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -13254,16 +13251,16 @@
         <v>153</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="N94" t="s" s="2">
+      <c r="O94" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>80</v>
@@ -13312,7 +13309,7 @@
         <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>81</v>
@@ -13330,10 +13327,10 @@
         <v>80</v>
       </c>
       <c r="AL94" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AM94" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>80</v>
@@ -13344,10 +13341,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13373,16 +13370,16 @@
         <v>266</v>
       </c>
       <c r="L95" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="M95" t="s" s="2">
+      <c r="N95" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="N95" t="s" s="2">
+      <c r="O95" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>80</v>
@@ -13410,11 +13407,11 @@
         <v>283</v>
       </c>
       <c r="Y95" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="Z95" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="Z95" t="s" s="2">
-        <v>505</v>
-      </c>
       <c r="AA95" t="s" s="2">
         <v>80</v>
       </c>
@@ -13431,7 +13428,7 @@
         <v>80</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>81</v>
@@ -13463,10 +13460,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13489,17 +13486,17 @@
         <v>80</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="L96" t="s" s="2">
+      <c r="M96" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>80</v>
@@ -13548,7 +13545,7 @@
         <v>80</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>81</v>
@@ -13566,24 +13563,24 @@
         <v>80</v>
       </c>
       <c r="AL96" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AM96" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="AM96" t="s" s="2">
-        <v>346</v>
-      </c>
       <c r="AN96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO96" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13606,16 +13603,16 @@
         <v>80</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L97" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="M97" t="s" s="2">
+      <c r="N97" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>513</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -13665,7 +13662,7 @@
         <v>80</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>81</v>
@@ -13686,7 +13683,7 @@
         <v>80</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>80</v>
@@ -13697,10 +13694,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13726,13 +13723,13 @@
         <v>123</v>
       </c>
       <c r="L98" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="M98" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="M98" t="s" s="2">
+      <c r="N98" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -13782,7 +13779,7 @@
         <v>80</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>81</v>
@@ -13791,7 +13788,7 @@
         <v>93</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>105</v>
@@ -13800,10 +13797,10 @@
         <v>80</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>80</v>
@@ -13814,10 +13811,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13843,16 +13840,16 @@
         <v>113</v>
       </c>
       <c r="L99" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="M99" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="M99" t="s" s="2">
+      <c r="N99" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="N99" t="s" s="2">
+      <c r="O99" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>525</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>80</v>
@@ -13880,11 +13877,11 @@
         <v>258</v>
       </c>
       <c r="Y99" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="Z99" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="Z99" t="s" s="2">
-        <v>527</v>
-      </c>
       <c r="AA99" t="s" s="2">
         <v>80</v>
       </c>
@@ -13901,7 +13898,7 @@
         <v>80</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>81</v>
@@ -13919,7 +13916,7 @@
         <v>80</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>157</v>
@@ -13933,10 +13930,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13962,16 +13959,16 @@
         <v>266</v>
       </c>
       <c r="L100" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="M100" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="M100" t="s" s="2">
+      <c r="N100" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="N100" t="s" s="2">
+      <c r="O100" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>80</v>
@@ -13999,11 +13996,11 @@
         <v>117</v>
       </c>
       <c r="Y100" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="Z100" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="Z100" t="s" s="2">
-        <v>535</v>
-      </c>
       <c r="AA100" t="s" s="2">
         <v>80</v>
       </c>
@@ -14020,7 +14017,7 @@
         <v>80</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>81</v>
@@ -14038,7 +14035,7 @@
         <v>80</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>157</v>
@@ -14052,10 +14049,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14078,16 +14075,16 @@
         <v>80</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L101" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="M101" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="M101" t="s" s="2">
+      <c r="N101" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>540</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14137,7 +14134,7 @@
         <v>80</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>81</v>
@@ -14146,7 +14143,7 @@
         <v>82</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>105</v>
@@ -14155,10 +14152,10 @@
         <v>80</v>
       </c>
       <c r="AL101" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AM101" t="s" s="2">
         <v>542</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>543</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>80</v>
@@ -14169,10 +14166,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14198,16 +14195,16 @@
         <v>266</v>
       </c>
       <c r="L102" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="M102" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="M102" t="s" s="2">
+      <c r="N102" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="N102" t="s" s="2">
+      <c r="O102" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>80</v>
@@ -14235,11 +14232,11 @@
         <v>117</v>
       </c>
       <c r="Y102" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="Z102" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="Z102" t="s" s="2">
-        <v>550</v>
-      </c>
       <c r="AA102" t="s" s="2">
         <v>80</v>
       </c>
@@ -14256,7 +14253,7 @@
         <v>80</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>81</v>
@@ -14265,7 +14262,7 @@
         <v>93</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>105</v>
@@ -14274,7 +14271,7 @@
         <v>80</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>157</v>
@@ -14288,10 +14285,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14317,13 +14314,13 @@
         <v>83</v>
       </c>
       <c r="L103" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="M103" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="M103" t="s" s="2">
+      <c r="N103" t="s" s="2">
         <v>554</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>555</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -14373,7 +14370,7 @@
         <v>80</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>81</v>
@@ -14382,7 +14379,7 @@
         <v>82</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>105</v>
@@ -14391,10 +14388,10 @@
         <v>80</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>80</v>
@@ -14405,13 +14402,13 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="C104" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="B104" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="C104" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="D104" t="s" s="2">
         <v>80</v>
@@ -14433,13 +14430,13 @@
         <v>80</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L104" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="M104" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>560</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -14490,7 +14487,7 @@
         <v>80</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>81</v>
@@ -14502,16 +14499,16 @@
         <v>80</v>
       </c>
       <c r="AJ104" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL104" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="AK104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL104" t="s" s="2">
+      <c r="AM104" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>489</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>80</v>
@@ -14522,10 +14519,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14637,10 +14634,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14754,14 +14751,14 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
@@ -14783,10 +14780,10 @@
         <v>138</v>
       </c>
       <c r="L107" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M107" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="N107" t="s" s="2">
         <v>208</v>
@@ -14841,7 +14838,7 @@
         <v>80</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>81</v>
@@ -14873,18 +14870,18 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>93</v>
@@ -14902,16 +14899,16 @@
         <v>153</v>
       </c>
       <c r="L108" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="M108" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="M108" t="s" s="2">
+      <c r="N108" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="N108" t="s" s="2">
+      <c r="O108" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>80</v>
@@ -14960,7 +14957,7 @@
         <v>80</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>81</v>
@@ -14978,10 +14975,10 @@
         <v>80</v>
       </c>
       <c r="AL108" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AM108" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="AM108" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>80</v>
@@ -14992,10 +14989,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15003,7 +15000,7 @@
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>93</v>
@@ -15021,16 +15018,16 @@
         <v>266</v>
       </c>
       <c r="L109" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="M109" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="M109" t="s" s="2">
+      <c r="N109" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="N109" t="s" s="2">
+      <c r="O109" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="O109" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>80</v>
@@ -15077,7 +15074,7 @@
         <v>80</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>81</v>
@@ -15109,10 +15106,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15135,17 +15132,17 @@
         <v>80</v>
       </c>
       <c r="K110" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="L110" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="L110" t="s" s="2">
+      <c r="M110" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>80</v>
@@ -15194,7 +15191,7 @@
         <v>80</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>81</v>
@@ -15212,24 +15209,24 @@
         <v>80</v>
       </c>
       <c r="AL110" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AM110" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="AM110" t="s" s="2">
-        <v>346</v>
-      </c>
       <c r="AN110" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO110" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15252,16 +15249,16 @@
         <v>80</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L111" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="M111" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="M111" t="s" s="2">
+      <c r="N111" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>513</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -15311,7 +15308,7 @@
         <v>80</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>81</v>
@@ -15332,7 +15329,7 @@
         <v>80</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>80</v>
@@ -15343,10 +15340,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15372,13 +15369,13 @@
         <v>123</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="M112" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="N112" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
@@ -15428,7 +15425,7 @@
         <v>80</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>81</v>
@@ -15437,7 +15434,7 @@
         <v>93</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>105</v>
@@ -15446,10 +15443,10 @@
         <v>80</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>80</v>
@@ -15460,10 +15457,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15489,16 +15486,16 @@
         <v>113</v>
       </c>
       <c r="L113" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="M113" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="M113" t="s" s="2">
+      <c r="N113" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="N113" t="s" s="2">
+      <c r="O113" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="O113" t="s" s="2">
-        <v>525</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>80</v>
@@ -15526,11 +15523,11 @@
         <v>258</v>
       </c>
       <c r="Y113" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="Z113" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="Z113" t="s" s="2">
-        <v>527</v>
-      </c>
       <c r="AA113" t="s" s="2">
         <v>80</v>
       </c>
@@ -15547,7 +15544,7 @@
         <v>80</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>81</v>
@@ -15565,7 +15562,7 @@
         <v>80</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>157</v>
@@ -15579,10 +15576,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15608,16 +15605,16 @@
         <v>266</v>
       </c>
       <c r="L114" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="M114" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="M114" t="s" s="2">
+      <c r="N114" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="N114" t="s" s="2">
+      <c r="O114" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="O114" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>80</v>
@@ -15645,11 +15642,11 @@
         <v>117</v>
       </c>
       <c r="Y114" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="Z114" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="Z114" t="s" s="2">
-        <v>535</v>
-      </c>
       <c r="AA114" t="s" s="2">
         <v>80</v>
       </c>
@@ -15666,7 +15663,7 @@
         <v>80</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>81</v>
@@ -15684,7 +15681,7 @@
         <v>80</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>157</v>
@@ -15698,10 +15695,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15724,16 +15721,16 @@
         <v>80</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L115" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="M115" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="M115" t="s" s="2">
+      <c r="N115" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>540</v>
       </c>
       <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
@@ -15783,7 +15780,7 @@
         <v>80</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>81</v>
@@ -15792,7 +15789,7 @@
         <v>82</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>105</v>
@@ -15801,10 +15798,10 @@
         <v>80</v>
       </c>
       <c r="AL115" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AM115" t="s" s="2">
         <v>542</v>
-      </c>
-      <c r="AM115" t="s" s="2">
-        <v>543</v>
       </c>
       <c r="AN115" t="s" s="2">
         <v>80</v>
@@ -15815,10 +15812,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -15844,16 +15841,16 @@
         <v>266</v>
       </c>
       <c r="L116" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="M116" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="M116" t="s" s="2">
+      <c r="N116" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="N116" t="s" s="2">
+      <c r="O116" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="O116" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>80</v>
@@ -15881,11 +15878,11 @@
         <v>117</v>
       </c>
       <c r="Y116" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="Z116" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="Z116" t="s" s="2">
-        <v>550</v>
-      </c>
       <c r="AA116" t="s" s="2">
         <v>80</v>
       </c>
@@ -15902,7 +15899,7 @@
         <v>80</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>81</v>
@@ -15911,7 +15908,7 @@
         <v>93</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>105</v>
@@ -15920,7 +15917,7 @@
         <v>80</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>157</v>
@@ -15934,10 +15931,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -15963,13 +15960,13 @@
         <v>80</v>
       </c>
       <c r="L117" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="M117" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="M117" t="s" s="2">
+      <c r="N117" t="s" s="2">
         <v>554</v>
-      </c>
-      <c r="N117" t="s" s="2">
-        <v>555</v>
       </c>
       <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
@@ -16019,7 +16016,7 @@
         <v>80</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>81</v>
@@ -16028,7 +16025,7 @@
         <v>82</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>105</v>
@@ -16037,10 +16034,10 @@
         <v>80</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>80</v>
@@ -16051,13 +16048,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="C118" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="B118" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="C118" t="s" s="2">
-        <v>577</v>
       </c>
       <c r="D118" t="s" s="2">
         <v>80</v>
@@ -16079,13 +16076,13 @@
         <v>80</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L118" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="M118" t="s" s="2">
         <v>578</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>579</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
@@ -16136,7 +16133,7 @@
         <v>80</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>81</v>
@@ -16148,16 +16145,16 @@
         <v>80</v>
       </c>
       <c r="AJ118" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AK118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL118" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="AK118" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL118" t="s" s="2">
+      <c r="AM118" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="AM118" t="s" s="2">
-        <v>489</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>80</v>
@@ -16168,10 +16165,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16283,10 +16280,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16400,14 +16397,14 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
@@ -16429,10 +16426,10 @@
         <v>138</v>
       </c>
       <c r="L121" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M121" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="N121" t="s" s="2">
         <v>208</v>
@@ -16487,7 +16484,7 @@
         <v>80</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>81</v>
@@ -16519,18 +16516,18 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G122" t="s" s="2">
         <v>93</v>
@@ -16548,16 +16545,16 @@
         <v>153</v>
       </c>
       <c r="L122" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="M122" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="M122" t="s" s="2">
+      <c r="N122" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="N122" t="s" s="2">
+      <c r="O122" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>80</v>
@@ -16606,7 +16603,7 @@
         <v>80</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>81</v>
@@ -16624,10 +16621,10 @@
         <v>80</v>
       </c>
       <c r="AL122" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AM122" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="AM122" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>80</v>
@@ -16638,10 +16635,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -16649,7 +16646,7 @@
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G123" t="s" s="2">
         <v>93</v>
@@ -16667,16 +16664,16 @@
         <v>266</v>
       </c>
       <c r="L123" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="M123" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="M123" t="s" s="2">
+      <c r="N123" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="N123" t="s" s="2">
+      <c r="O123" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="O123" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>80</v>
@@ -16723,7 +16720,7 @@
         <v>80</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>81</v>
@@ -16755,10 +16752,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -16781,17 +16778,17 @@
         <v>80</v>
       </c>
       <c r="K124" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="L124" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="L124" t="s" s="2">
+      <c r="M124" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>80</v>
@@ -16840,7 +16837,7 @@
         <v>80</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>81</v>
@@ -16858,24 +16855,24 @@
         <v>80</v>
       </c>
       <c r="AL124" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AM124" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="AM124" t="s" s="2">
-        <v>346</v>
-      </c>
       <c r="AN124" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO124" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -16898,16 +16895,16 @@
         <v>80</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L125" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="M125" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="M125" t="s" s="2">
+      <c r="N125" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>513</v>
       </c>
       <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
@@ -16957,7 +16954,7 @@
         <v>80</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>81</v>
@@ -16978,7 +16975,7 @@
         <v>80</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>80</v>
@@ -16989,10 +16986,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17018,13 +17015,13 @@
         <v>123</v>
       </c>
       <c r="L126" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="M126" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="M126" t="s" s="2">
+      <c r="N126" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="O126" s="2"/>
       <c r="P126" t="s" s="2">
@@ -17074,7 +17071,7 @@
         <v>80</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>81</v>
@@ -17083,7 +17080,7 @@
         <v>93</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>105</v>
@@ -17092,10 +17089,10 @@
         <v>80</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>80</v>
@@ -17106,10 +17103,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17135,16 +17132,16 @@
         <v>113</v>
       </c>
       <c r="L127" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="M127" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="M127" t="s" s="2">
+      <c r="N127" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="N127" t="s" s="2">
+      <c r="O127" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="O127" t="s" s="2">
-        <v>525</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>80</v>
@@ -17172,11 +17169,11 @@
         <v>258</v>
       </c>
       <c r="Y127" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="Z127" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="Z127" t="s" s="2">
-        <v>527</v>
-      </c>
       <c r="AA127" t="s" s="2">
         <v>80</v>
       </c>
@@ -17193,7 +17190,7 @@
         <v>80</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>81</v>
@@ -17211,7 +17208,7 @@
         <v>80</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>157</v>
@@ -17225,10 +17222,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17254,16 +17251,16 @@
         <v>266</v>
       </c>
       <c r="L128" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="M128" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="M128" t="s" s="2">
+      <c r="N128" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="N128" t="s" s="2">
+      <c r="O128" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="O128" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>80</v>
@@ -17291,11 +17288,11 @@
         <v>117</v>
       </c>
       <c r="Y128" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="Z128" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="Z128" t="s" s="2">
-        <v>535</v>
-      </c>
       <c r="AA128" t="s" s="2">
         <v>80</v>
       </c>
@@ -17312,7 +17309,7 @@
         <v>80</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>81</v>
@@ -17330,7 +17327,7 @@
         <v>80</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AM128" t="s" s="2">
         <v>157</v>
@@ -17344,10 +17341,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -17370,16 +17367,16 @@
         <v>80</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L129" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="M129" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="M129" t="s" s="2">
+      <c r="N129" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>540</v>
       </c>
       <c r="O129" s="2"/>
       <c r="P129" t="s" s="2">
@@ -17429,7 +17426,7 @@
         <v>80</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>81</v>
@@ -17438,7 +17435,7 @@
         <v>82</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AJ129" t="s" s="2">
         <v>105</v>
@@ -17447,10 +17444,10 @@
         <v>80</v>
       </c>
       <c r="AL129" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AM129" t="s" s="2">
         <v>542</v>
-      </c>
-      <c r="AM129" t="s" s="2">
-        <v>543</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>80</v>
@@ -17461,10 +17458,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -17490,16 +17487,16 @@
         <v>266</v>
       </c>
       <c r="L130" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="M130" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="M130" t="s" s="2">
+      <c r="N130" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="N130" t="s" s="2">
+      <c r="O130" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="O130" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>80</v>
@@ -17527,11 +17524,11 @@
         <v>117</v>
       </c>
       <c r="Y130" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="Z130" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="Z130" t="s" s="2">
-        <v>550</v>
-      </c>
       <c r="AA130" t="s" s="2">
         <v>80</v>
       </c>
@@ -17548,7 +17545,7 @@
         <v>80</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>81</v>
@@ -17557,7 +17554,7 @@
         <v>93</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>105</v>
@@ -17566,7 +17563,7 @@
         <v>80</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>157</v>
@@ -17580,10 +17577,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -17606,16 +17603,16 @@
         <v>80</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L131" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="M131" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="M131" t="s" s="2">
+      <c r="N131" t="s" s="2">
         <v>554</v>
-      </c>
-      <c r="N131" t="s" s="2">
-        <v>555</v>
       </c>
       <c r="O131" s="2"/>
       <c r="P131" t="s" s="2">
@@ -17665,7 +17662,7 @@
         <v>80</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>81</v>
@@ -17674,7 +17671,7 @@
         <v>82</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AJ131" t="s" s="2">
         <v>105</v>
@@ -17683,10 +17680,10 @@
         <v>80</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AN131" t="s" s="2">
         <v>80</v>
@@ -17697,10 +17694,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="B132" t="s" s="2">
         <v>593</v>
-      </c>
-      <c r="B132" t="s" s="2">
-        <v>594</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -17812,10 +17809,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="B133" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="B133" t="s" s="2">
-        <v>596</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -17929,14 +17926,14 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="B134" t="s" s="2">
         <v>597</v>
-      </c>
-      <c r="B134" t="s" s="2">
-        <v>598</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" t="s" s="2">
@@ -17958,10 +17955,10 @@
         <v>138</v>
       </c>
       <c r="L134" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M134" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="M134" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="N134" t="s" s="2">
         <v>208</v>
@@ -18016,7 +18013,7 @@
         <v>80</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>81</v>
@@ -18048,14 +18045,14 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="B135" t="s" s="2">
         <v>599</v>
-      </c>
-      <c r="B135" t="s" s="2">
-        <v>600</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135" t="s" s="2">
@@ -18077,16 +18074,16 @@
         <v>153</v>
       </c>
       <c r="L135" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="M135" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="M135" t="s" s="2">
+      <c r="N135" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="N135" t="s" s="2">
+      <c r="O135" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="O135" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>80</v>
@@ -18135,7 +18132,7 @@
         <v>80</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>81</v>
@@ -18153,10 +18150,10 @@
         <v>80</v>
       </c>
       <c r="AL135" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AM135" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="AM135" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="AN135" t="s" s="2">
         <v>80</v>
@@ -18167,10 +18164,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="B136" t="s" s="2">
         <v>601</v>
-      </c>
-      <c r="B136" t="s" s="2">
-        <v>602</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -18196,16 +18193,16 @@
         <v>266</v>
       </c>
       <c r="L136" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="M136" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="M136" t="s" s="2">
+      <c r="N136" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="N136" t="s" s="2">
+      <c r="O136" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="O136" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>80</v>
@@ -18252,7 +18249,7 @@
         <v>80</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>81</v>
@@ -18284,10 +18281,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="B137" t="s" s="2">
         <v>603</v>
-      </c>
-      <c r="B137" t="s" s="2">
-        <v>604</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -18310,17 +18307,17 @@
         <v>80</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="L137" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="M137" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="M137" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="P137" t="s" s="2">
         <v>80</v>
@@ -18369,7 +18366,7 @@
         <v>80</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>81</v>
@@ -18387,24 +18384,24 @@
         <v>80</v>
       </c>
       <c r="AL137" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AM137" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="AM137" t="s" s="2">
-        <v>346</v>
-      </c>
       <c r="AN137" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO137" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="B138" t="s" s="2">
         <v>606</v>
-      </c>
-      <c r="B138" t="s" s="2">
-        <v>607</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -18427,16 +18424,16 @@
         <v>80</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L138" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="M138" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="M138" t="s" s="2">
+      <c r="N138" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="N138" t="s" s="2">
-        <v>513</v>
       </c>
       <c r="O138" s="2"/>
       <c r="P138" t="s" s="2">
@@ -18486,7 +18483,7 @@
         <v>80</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>81</v>
@@ -18507,7 +18504,7 @@
         <v>80</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AN138" t="s" s="2">
         <v>80</v>
@@ -18518,10 +18515,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="B139" t="s" s="2">
         <v>608</v>
-      </c>
-      <c r="B139" t="s" s="2">
-        <v>609</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -18547,13 +18544,13 @@
         <v>123</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="M139" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="N139" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="O139" s="2"/>
       <c r="P139" t="s" s="2">
@@ -18603,7 +18600,7 @@
         <v>80</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>81</v>
@@ -18612,7 +18609,7 @@
         <v>93</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>105</v>
@@ -18621,10 +18618,10 @@
         <v>80</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AN139" t="s" s="2">
         <v>80</v>
@@ -18635,10 +18632,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="B140" t="s" s="2">
         <v>610</v>
-      </c>
-      <c r="B140" t="s" s="2">
-        <v>611</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -18664,16 +18661,16 @@
         <v>113</v>
       </c>
       <c r="L140" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="M140" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="M140" t="s" s="2">
+      <c r="N140" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="N140" t="s" s="2">
+      <c r="O140" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="O140" t="s" s="2">
-        <v>525</v>
       </c>
       <c r="P140" t="s" s="2">
         <v>80</v>
@@ -18701,11 +18698,11 @@
         <v>258</v>
       </c>
       <c r="Y140" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="Z140" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="Z140" t="s" s="2">
-        <v>527</v>
-      </c>
       <c r="AA140" t="s" s="2">
         <v>80</v>
       </c>
@@ -18722,7 +18719,7 @@
         <v>80</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>81</v>
@@ -18740,7 +18737,7 @@
         <v>80</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>157</v>
@@ -18754,10 +18751,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="B141" t="s" s="2">
         <v>612</v>
-      </c>
-      <c r="B141" t="s" s="2">
-        <v>613</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -18783,16 +18780,16 @@
         <v>266</v>
       </c>
       <c r="L141" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="M141" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="M141" t="s" s="2">
+      <c r="N141" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="N141" t="s" s="2">
+      <c r="O141" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="O141" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>80</v>
@@ -18820,11 +18817,11 @@
         <v>117</v>
       </c>
       <c r="Y141" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="Z141" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="Z141" t="s" s="2">
-        <v>535</v>
-      </c>
       <c r="AA141" t="s" s="2">
         <v>80</v>
       </c>
@@ -18841,7 +18838,7 @@
         <v>80</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>81</v>
@@ -18859,7 +18856,7 @@
         <v>80</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AM141" t="s" s="2">
         <v>157</v>
@@ -18873,10 +18870,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="B142" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="B142" t="s" s="2">
-        <v>615</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -18899,16 +18896,16 @@
         <v>80</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L142" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="M142" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="M142" t="s" s="2">
+      <c r="N142" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="N142" t="s" s="2">
-        <v>540</v>
       </c>
       <c r="O142" s="2"/>
       <c r="P142" t="s" s="2">
@@ -18958,7 +18955,7 @@
         <v>80</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>81</v>
@@ -18967,7 +18964,7 @@
         <v>82</v>
       </c>
       <c r="AI142" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AJ142" t="s" s="2">
         <v>105</v>
@@ -18976,10 +18973,10 @@
         <v>80</v>
       </c>
       <c r="AL142" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AM142" t="s" s="2">
         <v>542</v>
-      </c>
-      <c r="AM142" t="s" s="2">
-        <v>543</v>
       </c>
       <c r="AN142" t="s" s="2">
         <v>80</v>
@@ -18990,10 +18987,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="B143" t="s" s="2">
         <v>616</v>
-      </c>
-      <c r="B143" t="s" s="2">
-        <v>617</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -19019,16 +19016,16 @@
         <v>266</v>
       </c>
       <c r="L143" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="M143" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="M143" t="s" s="2">
+      <c r="N143" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="N143" t="s" s="2">
+      <c r="O143" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="O143" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>80</v>
@@ -19056,11 +19053,11 @@
         <v>117</v>
       </c>
       <c r="Y143" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="Z143" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="Z143" t="s" s="2">
-        <v>550</v>
-      </c>
       <c r="AA143" t="s" s="2">
         <v>80</v>
       </c>
@@ -19077,7 +19074,7 @@
         <v>80</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>81</v>
@@ -19086,7 +19083,7 @@
         <v>93</v>
       </c>
       <c r="AI143" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AJ143" t="s" s="2">
         <v>105</v>
@@ -19095,7 +19092,7 @@
         <v>80</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AM143" t="s" s="2">
         <v>157</v>
@@ -19109,10 +19106,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="B144" t="s" s="2">
         <v>618</v>
-      </c>
-      <c r="B144" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -19138,13 +19135,13 @@
         <v>80</v>
       </c>
       <c r="L144" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="M144" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="M144" t="s" s="2">
+      <c r="N144" t="s" s="2">
         <v>554</v>
-      </c>
-      <c r="N144" t="s" s="2">
-        <v>555</v>
       </c>
       <c r="O144" s="2"/>
       <c r="P144" t="s" s="2">
@@ -19194,7 +19191,7 @@
         <v>80</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>81</v>
@@ -19203,7 +19200,7 @@
         <v>82</v>
       </c>
       <c r="AI144" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AJ144" t="s" s="2">
         <v>105</v>
@@ -19212,10 +19209,10 @@
         <v>80</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AM144" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AN144" t="s" s="2">
         <v>80</v>
@@ -19226,13 +19223,13 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="B145" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="C145" t="s" s="2">
         <v>620</v>
-      </c>
-      <c r="B145" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="C145" t="s" s="2">
-        <v>621</v>
       </c>
       <c r="D145" t="s" s="2">
         <v>80</v>
@@ -19254,13 +19251,13 @@
         <v>80</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L145" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="M145" t="s" s="2">
         <v>622</v>
-      </c>
-      <c r="M145" t="s" s="2">
-        <v>623</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" s="2"/>
@@ -19311,7 +19308,7 @@
         <v>80</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>81</v>
@@ -19323,16 +19320,16 @@
         <v>80</v>
       </c>
       <c r="AJ145" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AK145" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL145" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="AK145" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL145" t="s" s="2">
+      <c r="AM145" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="AM145" t="s" s="2">
-        <v>489</v>
       </c>
       <c r="AN145" t="s" s="2">
         <v>80</v>
@@ -19343,10 +19340,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -19458,10 +19455,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -19575,14 +19572,14 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E148" s="2"/>
       <c r="F148" t="s" s="2">
@@ -19604,10 +19601,10 @@
         <v>138</v>
       </c>
       <c r="L148" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M148" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="M148" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="N148" t="s" s="2">
         <v>208</v>
@@ -19662,7 +19659,7 @@
         <v>80</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>81</v>
@@ -19694,18 +19691,18 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G149" t="s" s="2">
         <v>93</v>
@@ -19723,16 +19720,16 @@
         <v>153</v>
       </c>
       <c r="L149" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="M149" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="M149" t="s" s="2">
+      <c r="N149" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="N149" t="s" s="2">
+      <c r="O149" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="O149" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="P149" t="s" s="2">
         <v>80</v>
@@ -19781,7 +19778,7 @@
         <v>80</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>81</v>
@@ -19799,10 +19796,10 @@
         <v>80</v>
       </c>
       <c r="AL149" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AM149" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="AM149" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="AN149" t="s" s="2">
         <v>80</v>
@@ -19813,10 +19810,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -19824,7 +19821,7 @@
       </c>
       <c r="E150" s="2"/>
       <c r="F150" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G150" t="s" s="2">
         <v>93</v>
@@ -19842,16 +19839,16 @@
         <v>266</v>
       </c>
       <c r="L150" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="M150" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="M150" t="s" s="2">
+      <c r="N150" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="N150" t="s" s="2">
+      <c r="O150" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="O150" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="P150" t="s" s="2">
         <v>80</v>
@@ -19861,7 +19858,7 @@
         <v>80</v>
       </c>
       <c r="S150" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="T150" t="s" s="2">
         <v>80</v>
@@ -19879,11 +19876,11 @@
         <v>283</v>
       </c>
       <c r="Y150" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="Z150" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="Z150" t="s" s="2">
-        <v>505</v>
-      </c>
       <c r="AA150" t="s" s="2">
         <v>80</v>
       </c>
@@ -19900,7 +19897,7 @@
         <v>80</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>81</v>
@@ -19932,10 +19929,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -19958,17 +19955,17 @@
         <v>80</v>
       </c>
       <c r="K151" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="L151" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="L151" t="s" s="2">
+      <c r="M151" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="M151" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>80</v>
@@ -20017,7 +20014,7 @@
         <v>80</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>81</v>
@@ -20035,24 +20032,24 @@
         <v>80</v>
       </c>
       <c r="AL151" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AM151" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="AM151" t="s" s="2">
-        <v>346</v>
-      </c>
       <c r="AN151" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO151" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -20075,16 +20072,16 @@
         <v>80</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L152" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="M152" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="M152" t="s" s="2">
+      <c r="N152" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="N152" t="s" s="2">
-        <v>513</v>
       </c>
       <c r="O152" s="2"/>
       <c r="P152" t="s" s="2">
@@ -20134,7 +20131,7 @@
         <v>80</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>81</v>
@@ -20155,7 +20152,7 @@
         <v>80</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AN152" t="s" s="2">
         <v>80</v>
@@ -20166,10 +20163,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -20195,13 +20192,13 @@
         <v>123</v>
       </c>
       <c r="L153" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="M153" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="M153" t="s" s="2">
+      <c r="N153" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="N153" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="O153" s="2"/>
       <c r="P153" t="s" s="2">
@@ -20251,7 +20248,7 @@
         <v>80</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>81</v>
@@ -20260,7 +20257,7 @@
         <v>93</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AJ153" t="s" s="2">
         <v>105</v>
@@ -20269,10 +20266,10 @@
         <v>80</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AM153" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AN153" t="s" s="2">
         <v>80</v>
@@ -20283,10 +20280,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -20312,16 +20309,16 @@
         <v>113</v>
       </c>
       <c r="L154" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="M154" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="M154" t="s" s="2">
+      <c r="N154" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="N154" t="s" s="2">
+      <c r="O154" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="O154" t="s" s="2">
-        <v>525</v>
       </c>
       <c r="P154" t="s" s="2">
         <v>80</v>
@@ -20349,11 +20346,11 @@
         <v>258</v>
       </c>
       <c r="Y154" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="Z154" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="Z154" t="s" s="2">
-        <v>527</v>
-      </c>
       <c r="AA154" t="s" s="2">
         <v>80</v>
       </c>
@@ -20370,7 +20367,7 @@
         <v>80</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>81</v>
@@ -20388,7 +20385,7 @@
         <v>80</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AM154" t="s" s="2">
         <v>157</v>
@@ -20402,10 +20399,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -20431,16 +20428,16 @@
         <v>266</v>
       </c>
       <c r="L155" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="M155" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="M155" t="s" s="2">
+      <c r="N155" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="N155" t="s" s="2">
+      <c r="O155" t="s" s="2">
         <v>532</v>
-      </c>
-      <c r="O155" t="s" s="2">
-        <v>533</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>80</v>
@@ -20468,11 +20465,11 @@
         <v>117</v>
       </c>
       <c r="Y155" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="Z155" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="Z155" t="s" s="2">
-        <v>535</v>
-      </c>
       <c r="AA155" t="s" s="2">
         <v>80</v>
       </c>
@@ -20489,7 +20486,7 @@
         <v>80</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>81</v>
@@ -20507,7 +20504,7 @@
         <v>80</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AM155" t="s" s="2">
         <v>157</v>
@@ -20521,10 +20518,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -20547,16 +20544,16 @@
         <v>80</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L156" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="M156" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="M156" t="s" s="2">
+      <c r="N156" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="N156" t="s" s="2">
-        <v>540</v>
       </c>
       <c r="O156" s="2"/>
       <c r="P156" t="s" s="2">
@@ -20606,7 +20603,7 @@
         <v>80</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>81</v>
@@ -20615,7 +20612,7 @@
         <v>82</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AJ156" t="s" s="2">
         <v>105</v>
@@ -20624,10 +20621,10 @@
         <v>80</v>
       </c>
       <c r="AL156" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AM156" t="s" s="2">
         <v>542</v>
-      </c>
-      <c r="AM156" t="s" s="2">
-        <v>543</v>
       </c>
       <c r="AN156" t="s" s="2">
         <v>80</v>
@@ -20638,10 +20635,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -20667,16 +20664,16 @@
         <v>266</v>
       </c>
       <c r="L157" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="M157" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="M157" t="s" s="2">
+      <c r="N157" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="N157" t="s" s="2">
+      <c r="O157" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="O157" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="P157" t="s" s="2">
         <v>80</v>
@@ -20704,11 +20701,11 @@
         <v>117</v>
       </c>
       <c r="Y157" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="Z157" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="Z157" t="s" s="2">
-        <v>550</v>
-      </c>
       <c r="AA157" t="s" s="2">
         <v>80</v>
       </c>
@@ -20725,7 +20722,7 @@
         <v>80</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>81</v>
@@ -20734,7 +20731,7 @@
         <v>93</v>
       </c>
       <c r="AI157" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AJ157" t="s" s="2">
         <v>105</v>
@@ -20743,7 +20740,7 @@
         <v>80</v>
       </c>
       <c r="AL157" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AM157" t="s" s="2">
         <v>157</v>
@@ -20757,10 +20754,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -20786,13 +20783,13 @@
         <v>80</v>
       </c>
       <c r="L158" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="M158" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="M158" t="s" s="2">
+      <c r="N158" t="s" s="2">
         <v>554</v>
-      </c>
-      <c r="N158" t="s" s="2">
-        <v>555</v>
       </c>
       <c r="O158" s="2"/>
       <c r="P158" t="s" s="2">
@@ -20842,7 +20839,7 @@
         <v>80</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>81</v>
@@ -20851,7 +20848,7 @@
         <v>82</v>
       </c>
       <c r="AI158" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AJ158" t="s" s="2">
         <v>105</v>
@@ -20860,10 +20857,10 @@
         <v>80</v>
       </c>
       <c r="AL158" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AN158" t="s" s="2">
         <v>80</v>

--- a/ig/ch-lab-report/StructureDefinition-ch-lab-report-composition.xlsx
+++ b/ig/ch-lab-report/StructureDefinition-ch-lab-report-composition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T14:17:25+00:00</t>
+    <t>2025-12-16T10:40:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -381,7 +381,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -713,7 +713,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -867,7 +867,7 @@
     <t>Type of a composition.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/doc-typecodes</t>
+    <t>http://hl7.org/fhir/ValueSet/doc-typecodes|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -906,7 +906,7 @@
     <t>High-level kind of a clinical document at a macro level.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/document-classcodes</t>
+    <t>http://hl7.org/fhir/ValueSet/document-classcodes|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">value:$this}
@@ -1474,7 +1474,7 @@
     <t>This list of codes represents the main clinical acts being documented.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActCode</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ActCode|3.0.0</t>
   </si>
   <si>
     <t>DocumentReference.event.code</t>
@@ -1499,7 +1499,7 @@
     <t>Composition.event.detail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1582,7 +1582,7 @@
     <t>Classification of a section of a composition/document.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/doc-section-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/doc-section-codes|4.0.1</t>
   </si>
   <si>
     <t>Composition.section.author</t>
@@ -1674,7 +1674,7 @@
     <t>What order applies to the items in the entry.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/list-order</t>
+    <t>http://hl7.org/fhir/ValueSet/list-order|4.0.1</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].sequenceNumber &gt; 1</t>
@@ -1720,7 +1720,7 @@
     <t>If a section is empty, why it is empty.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/list-empty-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/list-empty-reason|4.0.1</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ,code&lt;ListEmptyReason].value[type=CD]</t>
@@ -1886,7 +1886,7 @@
     <t>Composition.section.section.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Device|Patient|RelatedPerson|Organization)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Device|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1|Organization|4.0.1)
 </t>
   </si>
   <si>
